--- a/task2/dataset_16.xlsx
+++ b/task2/dataset_16.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Index_0.5_Correlation</t>
+  </si>
+  <si>
+    <t>Numbers_0.5_Correlation</t>
   </si>
   <si>
     <t>Index_0.4_Correlation</t>
   </si>
   <si>
+    <t>Numbers_0.4_Correlation</t>
+  </si>
+  <si>
     <t>Index_0.3_Correlation</t>
   </si>
   <si>
+    <t>Numbers_0.3_Correlation</t>
+  </si>
+  <si>
     <t>Index_0.2_Correlation</t>
+  </si>
+  <si>
+    <t>Numbers_0.2_Correlation</t>
   </si>
 </sst>
 </file>
@@ -383,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,411 +414,771 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>81</v>
+      </c>
+      <c r="E2">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
         <v>16</v>
       </c>
-      <c r="B2">
+      <c r="H2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>92</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>74</v>
+      </c>
+      <c r="G4">
         <v>27</v>
       </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="H4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="B5">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>96</v>
+      </c>
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>26</v>
       </c>
       <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>69</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>88</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>97</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>96</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>81</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
+      <c r="H13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="B14">
         <v>26</v>
       </c>
-      <c r="B8">
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="H14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>19</v>
       </c>
       <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>45</v>
+      </c>
+      <c r="E16">
         <v>17</v>
       </c>
-      <c r="D15">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>21</v>
-      </c>
-      <c r="D16">
+      <c r="F16">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>92</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B18">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>33</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
         <v>16</v>
       </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>22</v>
-      </c>
-      <c r="B19">
+      <c r="B20">
+        <v>92</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>64</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>64</v>
+      </c>
+      <c r="C21">
         <v>14</v>
       </c>
-      <c r="C19">
-        <v>23</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>28</v>
-      </c>
-      <c r="D20">
+      <c r="D21">
+        <v>56</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>26</v>
+      </c>
+      <c r="G21">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>28</v>
-      </c>
-      <c r="C21">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="H21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>25</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>81</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>42</v>
+      </c>
+      <c r="G23">
         <v>13</v>
       </c>
-      <c r="D22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>14</v>
-      </c>
-      <c r="D23">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="H23">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>88</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>26</v>
+      </c>
+      <c r="H26">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
         <v>29</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>15</v>
-      </c>
-      <c r="B26">
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>69</v>
+      </c>
+      <c r="G28">
+        <v>29</v>
+      </c>
+      <c r="H28">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>56</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>45</v>
+      </c>
+      <c r="G29">
         <v>24</v>
       </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>29</v>
-      </c>
-      <c r="B27">
+      <c r="H29">
         <v>22</v>
       </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>21</v>
-      </c>
-      <c r="B28">
-        <v>20</v>
-      </c>
-      <c r="C28">
-        <v>26</v>
-      </c>
-      <c r="D28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>20</v>
-      </c>
-      <c r="B29">
-        <v>25</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D30">
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>22</v>
+      </c>
+      <c r="G30">
         <v>23</v>
+      </c>
+      <c r="H30">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
